--- a/MTSaddnewProduct/MTSaddnewProduct.xlsx
+++ b/MTSaddnewProduct/MTSaddnewProduct.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faust\Documents\Universidade\TVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faust\Documents\Universidade\TVS\MTSaddnewProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39638BAE-2BBB-4FC4-88B1-7FEFDDBC94FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0DC71-76E4-44AD-B4FD-5BA1F03F6C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ADD075F-64DC-4ACF-8147-89B4F8030541}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>Not Full ( 2 &lt;= size &lt; Max )</t>
-  </si>
-  <si>
     <t>Full ( size = Max)</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Not Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Full </t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D8AD44-D5B2-4C09-A5FF-6F3231CF502A}">
   <dimension ref="A2:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -734,10 +734,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16">
         <v>10</v>
@@ -760,7 +760,7 @@
         <v>-1</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17">
         <v>10</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -826,7 +826,7 @@
         <v>-1</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20">
         <v>10</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21">
         <v>10</v>
@@ -863,13 +863,13 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22">
         <v>10</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M30">
         <v>-1</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M31">
         <v>-1</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M32">
         <v>-1</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="33" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="34" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="35" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="36" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="37" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="38" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="39" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="40" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="41" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="42" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M42">
         <v>10</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="43" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43">
         <v>10</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="44" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M44">
         <v>10</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="45" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M45">
         <v>10</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="46" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M46">
         <v>10</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="47" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M47">
         <v>10</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="48" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M48">
         <v>10</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="49" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49">
         <v>10</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="50" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M50">
         <v>10</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="51" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M51">
         <v>-1</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="52" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M52">
         <v>-1</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="53" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M53">
         <v>-1</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="54" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M54">
         <v>-1</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="55" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M55">
         <v>-1</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="56" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M56">
         <v>-1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="57" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M57">
         <v>-1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="58" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M58">
         <v>-1</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="59" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M59">
         <v>-1</v>
